--- a/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,24%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>51,98%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,18; 61,99</t>
+          <t>28,63; 78,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,9; 61,52</t>
+          <t>30,05; 69,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,62; 59,74</t>
+          <t>36,14; 66,88</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,42; 57,19</t>
+          <t>49,18; 61,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,69; 53,18</t>
+          <t>48,9; 61,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,9; 53,66</t>
+          <t>50,62; 59,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>41,09%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,63; 78,31</t>
+          <t>34,39; 50,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,05; 69,23</t>
+          <t>33,03; 47,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,14; 66,88</t>
+          <t>36,31; 46,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>50,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>48,54%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,39; 50,16</t>
+          <t>43,42; 57,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,03; 47,63</t>
+          <t>39,69; 53,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,31; 46,62</t>
+          <t>43,9; 53,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,03; 61,66</t>
+          <t>42,35; 61,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,21; 64,14</t>
+          <t>48,62; 65,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,89; 59,93</t>
+          <t>46,84; 60,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,18; 61,99</t>
+          <t>48,97; 60,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,9; 61,52</t>
+          <t>48,51; 61,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,62; 59,74</t>
+          <t>50,62; 59,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,39; 50,16</t>
+          <t>34,05; 49,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,03; 47,63</t>
+          <t>33,42; 46,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,31; 46,62</t>
+          <t>36,06; 46,48</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,42; 57,19</t>
+          <t>44,3; 56,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,69; 53,18</t>
+          <t>39,47; 52,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,9; 53,66</t>
+          <t>43,94; 52,98</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,84; 53,99</t>
+          <t>46,73; 54,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,67; 52,76</t>
+          <t>45,86; 52,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,2; 52,06</t>
+          <t>47,38; 52,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,63; 78,31</t>
+          <t>28,75; 80,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,05; 69,23</t>
+          <t>30,75; 71,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,14; 66,88</t>
+          <t>36,27; 66,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,35; 61,79</t>
+          <t>41,1; 62,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,62; 65,12</t>
+          <t>48,68; 64,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,84; 60,14</t>
+          <t>47,4; 60,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,97; 60,6</t>
+          <t>48,58; 61,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,51; 61,52</t>
+          <t>48,24; 61,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,62; 59,69</t>
+          <t>50,88; 59,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,05; 49,71</t>
+          <t>34,04; 49,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,42; 46,38</t>
+          <t>33,3; 47,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,06; 46,48</t>
+          <t>36,18; 47,09</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,3; 56,83</t>
+          <t>43,8; 57,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,47; 52,7</t>
+          <t>39,42; 52,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,94; 52,98</t>
+          <t>44,15; 53,23</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,73; 54,07</t>
+          <t>46,83; 53,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,86; 52,66</t>
+          <t>45,64; 52,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,6</t>
+          <t>47,38; 52,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2905_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>53,29%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,75; 80,27</t>
+          <t>47,94; 63,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 71,01</t>
+          <t>40,78; 63,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,27; 66,62</t>
+          <t>47,24; 61,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,51%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>55,67%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,1; 62,11</t>
+          <t>50,16; 63,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,68; 64,15</t>
+          <t>48,77; 61,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,4; 60,53</t>
+          <t>50,85; 60,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>55,24%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>42,83%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,58; 61,14</t>
+          <t>33,36; 49,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,24; 61,0</t>
+          <t>36,38; 52,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,88; 59,42</t>
+          <t>37,75; 48,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>51,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>48,86%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 49,38</t>
+          <t>39,49; 52,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,3; 47,31</t>
+          <t>43,85; 57,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,18; 47,09</t>
+          <t>44,35; 54,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>50,32%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,8; 57,64</t>
+          <t>45,94; 53,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,42; 52,91</t>
+          <t>47,13; 54,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,15; 53,23</t>
+          <t>47,7; 52,83</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>50,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>49,12%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>49,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>46,83; 53,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>45,64; 52,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>47,38; 52,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
